--- a/Python与office编程/text_0.xlsx
+++ b/Python与office编程/text_0.xlsx
@@ -14,7 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
   <si>
     <t>while</t>
   </si>
@@ -23,8 +53,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -52,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -61,6 +100,120 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>while!$b$1:$b$10</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>while!$c$1:$c$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -357,12 +510,101 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <f>SUM(A3:A4)</f>
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Python与office编程/text_0.xlsx
+++ b/Python与office编程/text_0.xlsx
@@ -108,9 +108,8 @@
   <c:chart>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -121,6 +120,9 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>while!$b$1:$b$10</c:f>
@@ -138,13 +140,14 @@
         </c:ser>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
-      </c:barChart>
+      </c:radarChart>
       <c:catAx>
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
@@ -161,6 +164,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -501,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +514,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -520,16 +524,22 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -539,8 +549,11 @@
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>34</v>
       </c>
@@ -550,8 +563,11 @@
       <c r="C4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <f>SUM(A3:A4)</f>
         <v>0</v>
@@ -562,45 +578,63 @@
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
         <v>10</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
